--- a/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10029</v>
+        <v>9690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009996419627722368</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04006067871929894</v>
+        <v>0.03870451735750603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9451</v>
+        <v>10423</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.005244793763326343</v>
+        <v>0.005244793763326342</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0198057326938419</v>
+        <v>0.0218432333400759</v>
       </c>
     </row>
     <row r="8">
@@ -986,16 +986,16 @@
         <v>247851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240325</v>
+        <v>240664</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>250354</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9900035803722775</v>
+        <v>0.9900035803722778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9599393212807016</v>
+        <v>0.9612954826424935</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>474663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467715</v>
+        <v>466743</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>477166</v>
@@ -1016,7 +1016,7 @@
         <v>0.9947552062366736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9801942673061573</v>
+        <v>0.9781567666599245</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         <v>2664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>805</v>
+        <v>700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6871</v>
+        <v>6491</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.008979721794087311</v>
+        <v>0.008979721794087313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002713840868332451</v>
+        <v>0.00235894945869071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02316380014907146</v>
+        <v>0.02188201330895152</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1145,19 +1145,19 @@
         <v>2664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6584</v>
+        <v>6451</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.004850568305161545</v>
+        <v>0.004850568305161546</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001258413233861888</v>
+        <v>0.001273699045173915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01198949385160899</v>
+        <v>0.01174795474093869</v>
       </c>
     </row>
     <row r="11">
@@ -1187,19 +1187,19 @@
         <v>293971</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289764</v>
+        <v>290144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295830</v>
+        <v>295935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9910202782059127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9768361998509291</v>
+        <v>0.9781179866910482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972861591316676</v>
+        <v>0.9976410505413094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -1208,19 +1208,19 @@
         <v>546489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>542569</v>
+        <v>542702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548462</v>
+        <v>548454</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9951494316948384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9880105061483911</v>
+        <v>0.9882520452590614</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987415867661381</v>
+        <v>0.9987263009548262</v>
       </c>
     </row>
     <row r="12">
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.003610461474833439</v>
+        <v>0.00361046147483344</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01837740014545229</v>
+        <v>0.01838838712061448</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1333,19 +1333,19 @@
         <v>2044</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5448</v>
+        <v>5431</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.005909734921075419</v>
+        <v>0.005909734921075418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001917921966849835</v>
+        <v>0.001937119604815315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01575369337467435</v>
+        <v>0.01570429401093682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1354,19 +1354,19 @@
         <v>3188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8285</v>
+        <v>8417</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.004809942626789686</v>
+        <v>0.004809942626789685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001040398550587536</v>
+        <v>0.00104838622958792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01249838486544414</v>
+        <v>0.01269713689299846</v>
       </c>
     </row>
     <row r="14">
@@ -1383,16 +1383,16 @@
         <v>315923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311241</v>
+        <v>311238</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>317068</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9963895385251664</v>
+        <v>0.9963895385251667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9816225998545478</v>
+        <v>0.9816116128793857</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1404,19 +1404,19 @@
         <v>343764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340360</v>
+        <v>340377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345145</v>
+        <v>345138</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9940902650789247</v>
+        <v>0.9940902650789245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9842463066253255</v>
+        <v>0.9842957059890632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9980820780331502</v>
+        <v>0.9980628803951845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>820</v>
@@ -1425,19 +1425,19 @@
         <v>659687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>654590</v>
+        <v>654458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662185</v>
+        <v>662180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9951900573732103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9875016151345558</v>
+        <v>0.9873028631070015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9989596014494125</v>
+        <v>0.9989516137704121</v>
       </c>
     </row>
     <row r="15">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006424712141445604</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1550,19 +1550,19 @@
         <v>3841</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7883</v>
+        <v>8127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01515541468788806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005273338589722392</v>
+        <v>0.005245368306383393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03110281968525383</v>
+        <v>0.03206409348425635</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1571,19 +1571,19 @@
         <v>5495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2592</v>
+        <v>2688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10596</v>
+        <v>11425</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01075564610995876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005073394483550476</v>
+        <v>0.005261593979968178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02073893521322241</v>
+        <v>0.02236018246017167</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1600,7 @@
         <v>255827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251596</v>
+        <v>250961</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>257481</v>
@@ -1609,7 +1609,7 @@
         <v>0.9935752878585543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9771441940067475</v>
+        <v>0.9746784076158239</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>249612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>245570</v>
+        <v>245326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>252116</v>
+        <v>252124</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9848445853121118</v>
+        <v>0.9848445853121119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9688971803147465</v>
+        <v>0.9679359065157437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9947266614102781</v>
+        <v>0.9947546316936167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>680</v>
@@ -1642,19 +1642,19 @@
         <v>505439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>500338</v>
+        <v>499509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>508342</v>
+        <v>508246</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9892443538900412</v>
+        <v>0.9892443538900413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9792610647867774</v>
+        <v>0.9776398175398289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9949266055164494</v>
+        <v>0.9947384060200319</v>
       </c>
     </row>
     <row r="18">
@@ -1759,19 +1759,19 @@
         <v>3231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6670</v>
+        <v>6335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01623641074729033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005978568863912891</v>
+        <v>0.005948300064065613</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03352274522035386</v>
+        <v>0.03183483996234818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1780,19 +1780,19 @@
         <v>3231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7245</v>
+        <v>6912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00866070374535749</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003685880395707298</v>
+        <v>0.003425581631392855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01942270486460424</v>
+        <v>0.01852867987325376</v>
       </c>
     </row>
     <row r="20">
@@ -1822,19 +1822,19 @@
         <v>195750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192311</v>
+        <v>192646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197791</v>
+        <v>197797</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9837635892527097</v>
+        <v>0.9837635892527096</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9664772547796459</v>
+        <v>0.9681651600376517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9940214311360871</v>
+        <v>0.9940516999359343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -1843,19 +1843,19 @@
         <v>369804</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>365790</v>
+        <v>366123</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371660</v>
+        <v>371757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9913392962546426</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9805772951353957</v>
+        <v>0.9814713201267462</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9963141196042927</v>
+        <v>0.9965744183686072</v>
       </c>
     </row>
     <row r="21">
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="23">
@@ -2010,7 +2010,7 @@
         <v>128975</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125301</v>
+        <v>126407</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>129561</v>
@@ -2019,7 +2019,7 @@
         <v>0.9954786712674389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9671190124280844</v>
+        <v>0.9756543261335373</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2044,16 +2044,16 @@
         <v>315134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>312768</v>
+        <v>312778</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>315720</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9981445993327206</v>
+        <v>0.9981445993327209</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9906484850619083</v>
+        <v>0.9906811666981191</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2148,19 +2148,19 @@
         <v>3385</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2169,19 +2169,19 @@
         <v>14282</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -2190,19 +2190,19 @@
         <v>17667</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="26">
@@ -2219,19 +2219,19 @@
         <v>1564889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1559421</v>
+        <v>1559852</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1567148</v>
+        <v>1567613</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9978417113837017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9943551128320888</v>
+        <v>0.9946296758019477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9992822609451122</v>
+        <v>0.9995785211200459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2351</v>
@@ -2240,19 +2240,19 @@
         <v>1680092</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1671675</v>
+        <v>1672037</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1685249</v>
+        <v>1685361</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.99157099035211</v>
+        <v>0.9915709903521098</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.986603125834052</v>
+        <v>0.9868169778288711</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.994614825119799</v>
+        <v>0.99468034652802</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3807</v>
@@ -2261,19 +2261,19 @@
         <v>3244981</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3235958</v>
+        <v>3236440</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3251085</v>
+        <v>3251134</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9945851700521759</v>
+        <v>0.9945851700521758</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9918194719980979</v>
+        <v>0.9919671126917203</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9964559382696468</v>
+        <v>0.9964709874998431</v>
       </c>
     </row>
     <row r="27">
